--- a/tables/imd_global_competitiveness_ranking.xlsx
+++ b/tables/imd_global_competitiveness_ranking.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F09309E-88E2-40C1-828F-0714055A44E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -73,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,19 +81,150 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF31849B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4BACC6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4BACC6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4BACC6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4BACC6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4BACC6"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4BACC6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF4BACC6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4BACC6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF4BACC6"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4BACC6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF4BACC6"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -103,8 +233,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -165,7 +373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -200,7 +408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -377,171 +585,219 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="11"/>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="2" spans="1:6" ht="25.5" thickBot="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:6" ht="25.5" thickBot="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>34</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>42</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>35</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:6" ht="48.75">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="17">
         <v>45</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="17">
         <v>48</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="17">
         <v>45</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="19">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="1:6" ht="121.5" thickBot="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" ht="48.75">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="23">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="23">
         <v>29</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="23">
         <v>21</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="25">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="1:6" ht="157.5" thickBot="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="36.75">
+      <c r="A8" s="15">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="17">
         <v>29</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="17">
         <v>34</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="17">
         <v>28</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="19">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="1:6" ht="121.5" thickBot="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="24.75">
+      <c r="A10" s="21">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="23">
         <v>43</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="23">
         <v>51</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="23">
         <v>47</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="25">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="11" spans="1:6" ht="145.5" thickBot="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
